--- a/biology/Botanique/Olea_neriifolia/Olea_neriifolia.xlsx
+++ b/biology/Botanique/Olea_neriifolia/Olea_neriifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea neriifolia H. L. Li est un végétal appartenant au genre Olea. C'est une espèce qui pousse en Chine (en langue chinoise translittérée : xia ye mu xi lan).
 </t>
@@ -513,13 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Appareil végétatif
-Ce sont des buissons de 1,2 à 5 m, polygamodioïque. Les petites branches sont allongées et cylindriques (terete). Les pétioles ont 3 à 8 mm, glabres. Le limbe est très étroitement lancéolé à étroitement elliptiques, coriaces,  de 5 à 11,5 par 0,7 à 1,3 cm, glabres ; la base est atténuée, la marge est entière, l'apex est acuminé, rarement obtuses. Les nervures primaires sont sombres.
-Appareil reproducteur
-Les panicules sont axillaires, de 2 à 6 cm. Les fleurs staminées ont un pédicelle mince de 0,5 à 1,5 mm. Le calice mesure 0,5 mm. La corolle est blanche de 1,2 à 1,4 mm, à lobes largement ovales de 0,4 mm, aigus. Les fleurs bisexuées ont un pédicelle de 1,5 à 2 mm, le calice est de 0,7 mm, la corolle blanche devenant rose de 1,7 à 2 mm avec des lobes largement ovales, de 0,4 à 0,5 mm, aigus.
-Les fruits sont des drupes devenant brun-jaune en mûrissant, ellipsoïdes, de 7 à 8 par 3 à 5 mm, nervurées. La floraison survient de mars à septembre, la fructification de septembre à octobre.
-Répartition géographique
-Chine : Yunnan. Bois près des cours d'eau et collines basses du Hainan</t>
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des buissons de 1,2 à 5 m, polygamodioïque. Les petites branches sont allongées et cylindriques (terete). Les pétioles ont 3 à 8 mm, glabres. Le limbe est très étroitement lancéolé à étroitement elliptiques, coriaces,  de 5 à 11,5 par 0,7 à 1,3 cm, glabres ; la base est atténuée, la marge est entière, l'apex est acuminé, rarement obtuses. Les nervures primaires sont sombres.
+</t>
         </is>
       </c>
     </row>
@@ -544,10 +557,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Taxonomie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les panicules sont axillaires, de 2 à 6 cm. Les fleurs staminées ont un pédicelle mince de 0,5 à 1,5 mm. Le calice mesure 0,5 mm. La corolle est blanche de 1,2 à 1,4 mm, à lobes largement ovales de 0,4 mm, aigus. Les fleurs bisexuées ont un pédicelle de 1,5 à 2 mm, le calice est de 0,7 mm, la corolle blanche devenant rose de 1,7 à 2 mm avec des lobes largement ovales, de 0,4 à 0,5 mm, aigus.
+Les fruits sont des drupes devenant brun-jaune en mûrissant, ellipsoïdes, de 7 à 8 par 3 à 5 mm, nervurées. La floraison survient de mars à septembre, la fructification de septembre à octobre.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,13 +595,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Utilisations</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbuste décoratif. Cette espèce intéresse les créateurs de bonsaïs[1].
-</t>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chine : Yunnan. Bois près des cours d'eau et collines basses du Hainan</t>
         </is>
       </c>
     </row>
@@ -601,10 +631,73 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olea_neriifolia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_neriifolia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbuste décoratif. Cette espèce intéresse les créateurs de bonsaïs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olea_neriifolia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_neriifolia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
